--- a/data_preparation/LCDataDictionary.xlsx
+++ b/data_preparation/LCDataDictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanpaul/Desktop/lending club data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanpaul/PycharmProjects/resampling-p2p-lending/data_preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="460" windowWidth="33520" windowHeight="20540"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$C$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -1046,30 +1046,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Months since most recent 90-day or worse rating at time of application for the secondary applicant</t>
-  </si>
-  <si>
-    <t>Removed? Why?</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Yes. This data is only available after the loan is approved.</t>
-  </si>
-  <si>
-    <t>Yes, same as above.</t>
-  </si>
-  <si>
-    <t>Yes. Unique id.</t>
-  </si>
-  <si>
-    <t>Yes. Don't think it is relevant.</t>
-  </si>
-  <si>
-    <t>Not sure if this is important.</t>
-  </si>
-  <si>
-    <t>Yes. String data.</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1665,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1738,9 +1714,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2141,1273 +2114,1101 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="118.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>299</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>288</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>290</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>284</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="I46" s="9"/>
+      <c r="C46" s="3"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
       <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="3"/>
-      <c r="I47" s="9"/>
+      <c r="C47" s="3"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="3"/>
-      <c r="I48" s="11"/>
+      <c r="C48" s="3"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>303</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>305</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B66" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B67" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B68" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B69" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B71" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>270</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B78" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="C78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B79" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B80" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B81" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B83" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B85" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B89" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B92" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
         <v>311</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
         <v>331</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
         <v>333</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>317</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>313</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
         <v>319</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>335</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="C102" s="7"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>329</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
         <v>323</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
         <v>327</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>276</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>309</v>
       </c>
       <c r="B117" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B118" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B122" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B123" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B124" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>217</v>
       </c>
       <c r="B125" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B127" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B128" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
         <v>247</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="23"/>
       <c r="B130" s="25"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B131" s="12" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C129"/>
+  <autoFilter ref="A1:B129"/>
   <sortState ref="A2:B101">
     <sortCondition ref="A2:A101"/>
   </sortState>
